--- a/Aufgaben Backlog.xlsx
+++ b/Aufgaben Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="483"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="483" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -24,77 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Diesen Staus immer aktualisieren. Bei "Done" den Restaufwand dann auf 0 setzen.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Diesen Staus immer aktualisieren. Bei "Done" den Restaufwand dann auf 0 setzen.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Der geschätzte Aufwand</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wenn die Story fertig ist, dann für diese auf 0 setzen. In der Überschrift sieht man dann den Restaufwand.
-Zu Beginn ist der Wert gleich dem Aufwand.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>Projekt</t>
   </si>
@@ -368,6 +299,35 @@
   </si>
   <si>
     <t>Erstellt als "game.py"</t>
+  </si>
+  <si>
+    <t>Beschreibung Fehler Import von PyCharm auf VS Code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Der Fehler </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ModuleNotFoundError: No module named 'chessgame'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> wurde behoben und Lösung wurde dokumentiert                                           • Formartierung von Tabulatoren wurden verändert</t>
+    </r>
+  </si>
+  <si>
+    <t>start.py in obersten Ordner verschieben und "Projekt_Dateien" als Hauptordner verwenden.</t>
   </si>
 </sst>
 </file>
@@ -401,14 +361,14 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
+      <sz val="13.5"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="13.5"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -753,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,7 +2389,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2471,7 +2431,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2498,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -2678,14 +2638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2806,18 +2766,18 @@
     <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19">
-        <f>COUNTA(B7:B1002)</f>
-        <v>26</v>
+        <f>COUNTA(B7:B1003)</f>
+        <v>27</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18">
-        <f>SUM(F7:F1002)</f>
+        <f>SUM(F7:F1003)</f>
         <v>100</v>
       </c>
       <c r="G6" s="18">
-        <f>SUM(G7:G1002)</f>
+        <f>SUM(G7:G1003)</f>
         <v>100</v>
       </c>
       <c r="H6" s="20"/>
@@ -3275,23 +3235,25 @@
       <c r="H32" s="13"/>
       <c r="K32" s="23"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3299,7 +3261,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>18</v>
@@ -3308,17 +3270,17 @@
         <v>15</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H34" s="13"/>
       <c r="K34" s="23"/>
     </row>
-    <row r="35" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>18</v>
@@ -3327,16 +3289,17 @@
         <v>15</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>18</v>
@@ -3345,57 +3308,75 @@
         <v>15</v>
       </c>
       <c r="E36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="K36" s="23"/>
-    </row>
-    <row r="37" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
+      <c r="H37" s="13"/>
       <c r="K37" s="23"/>
     </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F39" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G39" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="K38" s="23"/>
-    </row>
-    <row r="39" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B40" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C40" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D40" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F40" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G40" s="45" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3414,7 +3395,7 @@
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D6 D40:D65540 D11:D12 D19 D22 D25:D26 D29">
+  <conditionalFormatting sqref="D5:D6 D41:D65541 D11:D12 D19 D22 D25:D26 D29">
     <cfRule type="cellIs" dxfId="56" priority="565" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
@@ -3524,7 +3505,7 @@
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
+  <conditionalFormatting sqref="D34:D37">
     <cfRule type="cellIs" dxfId="26" priority="40" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
@@ -3535,7 +3516,7 @@
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D32:D33">
     <cfRule type="cellIs" dxfId="23" priority="34" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
@@ -3568,7 +3549,7 @@
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
@@ -3626,7 +3607,6 @@
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
